--- a/MemberActivity.xlsx
+++ b/MemberActivity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -34,16 +34,13 @@
     <t>2023-06-03</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
